--- a/old_meter_count_by_month.xlsx
+++ b/old_meter_count_by_month.xlsx
@@ -14,16 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>2017-08</t>
-  </si>
-  <si>
-    <t>2017-09</t>
-  </si>
-  <si>
-    <t>2017-10</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>2017-11</t>
   </si>
@@ -31,9 +22,6 @@
     <t>2017-12</t>
   </si>
   <si>
-    <t>2018-01</t>
-  </si>
-  <si>
     <t>2018-02</t>
   </si>
   <si>
@@ -52,9 +40,6 @@
     <t>2018-08</t>
   </si>
   <si>
-    <t>2018-09</t>
-  </si>
-  <si>
     <t>2018-10</t>
   </si>
   <si>
@@ -79,6 +64,9 @@
     <t>2019-05</t>
   </si>
   <si>
+    <t>2019-06</t>
+  </si>
+  <si>
     <t>freelancer_id</t>
   </si>
   <si>
@@ -100,6 +88,9 @@
     <t>eoracion</t>
   </si>
   <si>
+    <t>jsmolinski</t>
+  </si>
+  <si>
     <t>lmaina</t>
   </si>
   <si>
@@ -107,6 +98,9 @@
   </si>
   <si>
     <t>rasentista</t>
+  </si>
+  <si>
+    <t>rfoster</t>
   </si>
   <si>
     <t>rsantos</t>
@@ -473,15 +467,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -534,377 +528,357 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>8</v>
+      </c>
+      <c r="P2">
+        <v>30</v>
+      </c>
+      <c r="Q2">
+        <v>25</v>
+      </c>
+      <c r="R2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>14</v>
+      </c>
+      <c r="Q3">
+        <v>46</v>
+      </c>
+      <c r="R3">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <v>36</v>
+      </c>
+      <c r="R4">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>30</v>
+      </c>
+      <c r="R6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>11</v>
+      </c>
+      <c r="R8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>9</v>
+      </c>
+      <c r="O9">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2">
-        <v>2</v>
-      </c>
-      <c r="U2">
-        <v>40</v>
-      </c>
-      <c r="V2">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="1" t="s">
+      <c r="P9">
+        <v>62</v>
+      </c>
+      <c r="Q9">
+        <v>219</v>
+      </c>
+      <c r="R9">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>12</v>
+      </c>
+      <c r="R10">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11">
+        <v>7</v>
+      </c>
+      <c r="P11">
+        <v>42</v>
+      </c>
+      <c r="Q11">
         <v>23</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>4</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3">
-        <v>10</v>
-      </c>
-      <c r="U3">
-        <v>80</v>
-      </c>
-      <c r="V3">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>3</v>
-      </c>
-      <c r="Q4">
-        <v>3</v>
-      </c>
-      <c r="R4">
+      <c r="R11">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
         <v>6</v>
       </c>
-      <c r="S4">
+      <c r="R12">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>23</v>
+      </c>
+      <c r="O14">
+        <v>437</v>
+      </c>
+      <c r="P14">
         <v>7</v>
       </c>
-      <c r="T4">
-        <v>15</v>
-      </c>
-      <c r="U4">
-        <v>49</v>
-      </c>
-      <c r="V4">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U5">
-        <v>48</v>
-      </c>
-      <c r="V5">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="O6">
-        <v>8</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>5</v>
-      </c>
-      <c r="U6">
-        <v>86</v>
-      </c>
-      <c r="V6">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>3</v>
-      </c>
-      <c r="U7">
-        <v>14</v>
-      </c>
-      <c r="V7">
+      <c r="Q14">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>8</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>2</v>
-      </c>
-      <c r="P8">
-        <v>2</v>
-      </c>
-      <c r="Q8">
-        <v>9</v>
-      </c>
-      <c r="R8">
-        <v>4</v>
-      </c>
-      <c r="S8">
-        <v>14</v>
-      </c>
-      <c r="T8">
-        <v>67</v>
-      </c>
-      <c r="U8">
-        <v>180</v>
-      </c>
-      <c r="V8">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9">
-        <v>2</v>
-      </c>
-      <c r="U9">
-        <v>22</v>
-      </c>
-      <c r="V9">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>9</v>
-      </c>
-      <c r="U10">
-        <v>84</v>
-      </c>
-      <c r="V10">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="1" t="s">
+      <c r="R14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>4</v>
-      </c>
-      <c r="V11">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12">
-        <v>9</v>
-      </c>
-      <c r="Q12">
-        <v>3</v>
-      </c>
-      <c r="R12">
-        <v>3</v>
-      </c>
-      <c r="S12">
-        <v>9</v>
-      </c>
-      <c r="T12">
-        <v>9</v>
-      </c>
-      <c r="U12">
-        <v>10</v>
-      </c>
-      <c r="V12">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>5</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>3</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>5</v>
-      </c>
-      <c r="Q13">
-        <v>10</v>
-      </c>
-      <c r="R13">
-        <v>2</v>
-      </c>
-      <c r="S13">
-        <v>5</v>
-      </c>
-      <c r="T13">
-        <v>9</v>
-      </c>
-      <c r="U13">
-        <v>74</v>
-      </c>
-      <c r="V13">
-        <v>277</v>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>6</v>
+      </c>
+      <c r="Q15">
+        <v>17</v>
+      </c>
+      <c r="R15">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
